--- a/pivot/livej.xlsx
+++ b/pivot/livej.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eske\Documents\git\SCCResults\pivot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2490C5E2-A876-4387-AB3F-5A4DA1DEEF15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7853E-855A-40BA-9B14-C411BDC4D44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103964,11 +103964,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
